--- a/Fase 2/Evidencias Grupales/Cronograma de Fases e Hitos.xlsx
+++ b/Fase 2/Evidencias Grupales/Cronograma de Fases e Hitos.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Downloads\Examen\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9BB37C-ECC0-4125-A011-BF0BF950ADA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Fase</t>
   </si>
@@ -155,12 +164,6 @@
   </si>
   <si>
     <t>Fase 3: Implementación</t>
-  </si>
-  <si>
-    <t>Despliegue en Plataformas Móviles</t>
-  </si>
-  <si>
-    <t>Realizar el lanzamiento oficial de la aplicación en las plataformas móviles, como Google Play y App Store. Esto incluye la configuración de cuentas de desarrollador, pruebas finales en los entornos de cada plataforma y la publicación del producto para que esté disponible al público.</t>
   </si>
   <si>
     <t>Documentación y Reportes del Proyecto</t>
@@ -178,40 +181,51 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd&quot; de &quot;mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd&quot; de &quot;mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,7 +234,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -229,8 +243,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
-    <border/>
+  <borders count="21">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -244,6 +264,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -258,17 +279,20 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -283,6 +307,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -294,6 +319,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -308,17 +335,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -333,6 +363,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -341,6 +372,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -355,17 +389,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -380,8 +417,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -391,6 +430,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -399,9 +439,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -416,17 +458,20 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -435,17 +480,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -454,178 +504,154 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -815,26 +841,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="31.38"/>
-    <col customWidth="1" min="3" max="3" width="75.13"/>
-    <col customWidth="1" min="4" max="6" width="18.88"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,8 +884,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -862,72 +895,72 @@
         <v>7</v>
       </c>
       <c r="D2" s="8">
-        <v>45518.0</v>
+        <v>45518</v>
       </c>
       <c r="E2" s="9">
-        <v>45524.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13">
-        <v>45518.0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>45524.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="D3" s="12">
+        <v>45518</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13">
-        <v>45525.0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>45531.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="12">
+        <v>45525</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15">
-        <v>45525.0</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+      <c r="D5" s="38">
+        <v>45525</v>
+      </c>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20">
-        <v>45525.0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>45538.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="16">
+        <v>45525</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -937,262 +970,253 @@
         <v>18</v>
       </c>
       <c r="D7" s="8">
-        <v>45540.0</v>
+        <v>45540</v>
       </c>
       <c r="E7" s="9">
-        <v>45546.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="21" t="s">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="23">
-        <v>45547.0</v>
-      </c>
-      <c r="E8" s="24">
-        <v>45560.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="21" t="s">
+      <c r="D8" s="19">
+        <v>45547</v>
+      </c>
+      <c r="E8" s="20">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="25">
-        <v>45539.0</v>
-      </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="27" t="s">
+      <c r="D9" s="33">
+        <v>45539</v>
+      </c>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="29">
-        <v>45549.0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>45577.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="21" t="s">
+      <c r="D10" s="23">
+        <v>45549</v>
+      </c>
+      <c r="E10" s="24">
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="25">
-        <v>45553.0</v>
-      </c>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="21" t="s">
+      <c r="D11" s="33">
+        <v>45553</v>
+      </c>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="25">
-        <v>45553.0</v>
-      </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="D12" s="33">
+        <v>45553</v>
+      </c>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="25">
-        <v>45553.0</v>
-      </c>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="D13" s="33">
+        <v>45553</v>
+      </c>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="23">
-        <v>45553.0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>45560.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="D14" s="19">
+        <v>45553</v>
+      </c>
+      <c r="E14" s="13">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="31">
-        <v>45553.0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>45573.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="D15" s="25">
+        <v>45553</v>
+      </c>
+      <c r="E15" s="26">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="33">
-        <v>45571.0</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="27" t="s">
+      <c r="D16" s="31">
+        <v>45571</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="35">
-        <v>45578.0</v>
-      </c>
-      <c r="E17" s="36">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="D17" s="28">
+        <v>45578</v>
+      </c>
+      <c r="E17" s="29">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="25">
-        <v>45578.0</v>
-      </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="D18" s="33">
+        <v>45578</v>
+      </c>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="25">
-        <v>45578.0</v>
-      </c>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="D19" s="33">
+        <v>45578</v>
+      </c>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="23">
-        <v>45600.0</v>
-      </c>
-      <c r="E20" s="14">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="D20" s="19">
+        <v>45600</v>
+      </c>
+      <c r="E20" s="13">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="23">
-        <v>45600.0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="D21" s="19">
+        <v>45600</v>
+      </c>
+      <c r="E21" s="13">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
+      <c r="D22" s="19">
+        <v>45623</v>
+      </c>
+      <c r="E22" s="13">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="39">
-        <v>45623.0</v>
-      </c>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="20">
-        <v>45623.0</v>
-      </c>
-      <c r="E24" s="41"/>
+      <c r="D23" s="19">
+        <v>45623</v>
+      </c>
+      <c r="E23" s="13">
+        <v>45630</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A7:A21"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>